--- a/Table.xlsx
+++ b/Table.xlsx
@@ -331,11 +331,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -361,17 +359,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -1,31 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24012"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yulia\Downloads\MtlbWorkWithData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_C68747A549D44D6CB4D97762B007F7D851345821" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Роль</t>
+  </si>
+  <si>
+    <t>название</t>
+  </si>
+  <si>
+    <t>дата регистрации</t>
+  </si>
+  <si>
+    <t>статус заявки</t>
+  </si>
+  <si>
+    <t>Иванов Петр Сергеевич</t>
+  </si>
+  <si>
+    <t>Руководитель</t>
+  </si>
+  <si>
+    <t>Теория большого взрыва</t>
+  </si>
+  <si>
+    <t>Поддержан</t>
+  </si>
+  <si>
+    <t>Иванов Сергей Иванович</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>Петров Аркадий Иванович</t>
+  </si>
+  <si>
+    <t>Семенов Илья Петрович</t>
+  </si>
+  <si>
+    <t>Теория малого взрыва</t>
+  </si>
+  <si>
+    <t>Не поддержан</t>
+  </si>
+  <si>
+    <t>Лапина Наталья Васильевна</t>
+  </si>
+  <si>
+    <t>Взрыв без теории</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,14 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,9 +141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -79,44 +151,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -144,14 +216,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -179,9 +268,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -190,176 +296,506 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>20</v>
-      </c>
-      <c r="B1">
-        <v>21</v>
-      </c>
-      <c r="C1">
-        <v>22</v>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>31</v>
-      </c>
-      <c r="C2">
-        <v>32</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42005</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <f>D2</f>
+        <v>42005</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <f>D3</f>
+        <v>42005</v>
+      </c>
+      <c r="E4" t="str">
+        <f>E3</f>
+        <v>Поддержан</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39541</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>38208</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100FA24127CAB775644A822C7116166FE6D" ma:contentTypeVersion="7" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="83f613a4864e7e23c84fa258ae613392">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="883b331d-6545-40c7-b3bc-e36d82c26408" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="348fbf42c1f6ff7f33a4c546b837eef2" ns2:_="">
+    <xsd:import namespace="883b331d-6545-40c7-b3bc-e36d82c26408"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="883b331d-6545-40c7-b3bc-e36d82c26408" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Тип контента"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Название"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{191E56C7-06E0-4832-A886-1EEF1ABE0089}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23BF4E97-A920-44C3-9BB3-0425ACCA853B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFB5CFA-CB48-411E-8DC2-FC089374A218}"/>
 </file>